--- a/Template/Шаблон для загрузки договоров в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки договоров в DirectumRX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nevolin_DA\Desktop\rx-util-importdata-net-core\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DirectumDev\rx-util-importdata-net-core\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
   <si>
     <t>Содержание</t>
   </si>
@@ -128,6 +128,63 @@
   </si>
   <si>
     <t>Дата помещения</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Договор</t>
+  </si>
+  <si>
+    <t>Сервисное обслуживание</t>
+  </si>
+  <si>
+    <t>Диагностика</t>
+  </si>
+  <si>
+    <t>Отдел продаж</t>
+  </si>
+  <si>
+    <t>Евро</t>
+  </si>
+  <si>
+    <t>Действующий</t>
+  </si>
+  <si>
+    <t>C:\temp\Contract.txt</t>
+  </si>
+  <si>
+    <t>АвтоДорСтрой, АО</t>
+  </si>
+  <si>
+    <t>Зарегистрирован</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ТехноСистемы, ООО123</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>АвтоДорСтрой, АО123</t>
+  </si>
+  <si>
+    <t>Договор123</t>
+  </si>
+  <si>
+    <t>ТехноСистемы, ООО</t>
+  </si>
+  <si>
+    <t>Не загружен</t>
+  </si>
+  <si>
+    <t>24.01.2024</t>
+  </si>
+  <si>
+    <t>Количества входных параметров для сущности 1 недостаточно. Количество ожидаемых параметров 28. Количество переданных параметров 21.; Количества входных параметров для сущности 2 недостаточно. Количество ожидаемых параметров 28. Количество переданных параметров 21.; Количества входных параметров для сущности 3 недостаточно. Количество ожидаемых параметров 28. Количество переданных параметров 21.</t>
   </si>
 </sst>
 </file>
@@ -274,7 +331,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -395,6 +452,16 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -747,15 +814,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="13" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.85546875" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="13" bestFit="1" customWidth="1"/>
@@ -768,7 +835,7 @@
     <col min="13" max="13" width="15.7109375" style="19" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.7109375" style="19" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="26.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" style="13" customWidth="1"/>
     <col min="17" max="17" width="13.42578125" style="13" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="13.42578125" style="19" customWidth="1"/>
     <col min="22" max="22" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
@@ -852,81 +919,191 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="32"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="10"/>
+      <c r="A2" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="7">
+        <v>45313</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="11">
+        <v>45313</v>
+      </c>
+      <c r="K2" s="11">
+        <v>47505</v>
+      </c>
+      <c r="L2" s="12">
+        <v>10000</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="30"/>
+      <c r="R2" s="37">
+        <v>20</v>
+      </c>
+      <c r="S2" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="39"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="W2" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" s="30" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="10"/>
+      <c r="A3" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="7">
+        <v>45313</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="11">
+        <v>45313</v>
+      </c>
+      <c r="K3" s="11">
+        <v>47505</v>
+      </c>
+      <c r="L3" s="12">
+        <v>10000</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
+      <c r="R3" s="37">
+        <v>20</v>
+      </c>
+      <c r="S3" s="39" t="s">
+        <v>44</v>
+      </c>
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
+      <c r="V3" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="W3" s="29" t="s">
+        <v>52</v>
+      </c>
       <c r="X3" s="31"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="10"/>
+      <c r="A4" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="7">
+        <v>45313</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="11">
+        <v>45313</v>
+      </c>
+      <c r="K4" s="11">
+        <v>47505</v>
+      </c>
+      <c r="L4" s="12">
+        <v>10000</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
+      <c r="R4" s="37">
+        <v>20</v>
+      </c>
+      <c r="S4" s="39" t="s">
+        <v>44</v>
+      </c>
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
+      <c r="V4" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="W4" s="29" t="s">
+        <v>52</v>
+      </c>
       <c r="X4" s="31"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">

--- a/Template/Шаблон для загрузки договоров в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки договоров в DirectumRX.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <x:si>
     <x:t>Содержание</x:t>
   </x:si>
@@ -130,73 +130,46 @@
     <x:t>Дата помещения</x:t>
   </x:si>
   <x:si>
+    <x:t>Сервисное обслуживание</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отдел продаж</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Евро</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Действующий</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Диагностика</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Зарегистрирован</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
     <x:t>Договор</x:t>
   </x:si>
   <x:si>
-    <x:t>Сервисное обслуживание</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Диагностика</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отдел продаж</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Евро</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Действующий</x:t>
-  </x:si>
-  <x:si>
-    <x:t>АвтоДорСтрой, АО</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Зарегистрирован</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ТехноСистемы, ООО123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>АвтоДорСтрой, АО123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Договор123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ТехноСистемы, ООО</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ГлобусКонсалтинг, ООО</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\temp\Тестовый договор.docx</x:t>
+    <x:t>Авалон ООО</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ТехноСистемы ЗАО</x:t>
   </x:si>
   <x:si>
     <x:t>Загружен</x:t>
   </x:si>
   <x:si>
-    <x:t>29.01.2024</x:t>
+    <x:t>13.02.2024</x:t>
   </x:si>
   <x:si>
     <x:t/>
   </x:si>
   <x:si>
-    <x:t>Не загружен</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не найден вид документа "Договор123".</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не найден контрагент "АвтоДорСтрой, АО123".</x:t>
+    <x:t>C:\temp\Тестовый договор 1.docx</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -829,8 +802,8 @@
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:dimension ref="A1:X22"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <x:selection activeCell="V2" sqref="V2:X8"/>
+    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <x:selection activeCell="I2" sqref="I2"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -852,10 +825,12 @@
     <x:col min="15" max="15" width="26.5703125" style="19" bestFit="1" customWidth="1"/>
     <x:col min="16" max="16" width="11.140625" style="13" customWidth="1"/>
     <x:col min="17" max="17" width="13.42578125" style="13" bestFit="1" customWidth="1"/>
-    <x:col min="18" max="21" width="13.42578125" style="19" customWidth="1"/>
-    <x:col min="22" max="22" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
+    <x:col min="18" max="18" width="13.42578125" style="19" customWidth="1"/>
+    <x:col min="19" max="19" width="17.5703125" style="19" customWidth="1"/>
+    <x:col min="20" max="21" width="13.42578125" style="19" customWidth="1"/>
+    <x:col min="22" max="22" width="24.28515625" style="13" customWidth="1"/>
     <x:col min="23" max="23" width="15.28515625" style="13" bestFit="1" customWidth="1"/>
-    <x:col min="24" max="24" width="13.42578125" style="13" bestFit="1" customWidth="1"/>
+    <x:col min="24" max="24" width="49.5703125" style="13" customWidth="1"/>
     <x:col min="25" max="16384" width="9.140625" style="13"/>
   </x:cols>
   <x:sheetData>
@@ -935,31 +910,31 @@
     </x:row>
     <x:row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <x:c r="A2" s="32" t="s">
-        <x:v>47</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B2" s="7">
         <x:v>45313</x:v>
       </x:c>
       <x:c r="C2" s="8" t="s">
-        <x:v>50</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D2" s="9" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E2" s="10" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="E2" s="10" t="s">
+      <x:c r="F2" s="37" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="G2" s="37" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H2" s="37" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="F2" s="37" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G2" s="37" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="H2" s="37" t="s">
-        <x:v>38</x:v>
-      </x:c>
       <x:c r="I2" s="38" t="s">
-        <x:v>51</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J2" s="11">
         <x:v>45313</x:v>
@@ -971,159 +946,83 @@
         <x:v>10000</x:v>
       </x:c>
       <x:c r="M2" s="11" t="s">
-        <x:v>39</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N2" s="10" t="s">
-        <x:v>40</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="O2" s="10"/>
       <x:c r="P2" s="10"/>
       <x:c r="Q2" s="10"/>
       <x:c r="R2" s="37">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="S2" s="39" t="s">
-        <x:v>42</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="T2" s="39"/>
       <x:c r="U2" s="11"/>
       <x:c r="V2" s="29" t="s">
-        <x:v>52</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="W2" s="29" t="s">
-        <x:v>53</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="X2" s="40" t="s">
-        <x:v>54</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <x:c r="A3" s="32" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="B3" s="7">
-        <x:v>45313</x:v>
-      </x:c>
-      <x:c r="C3" s="8" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D3" s="9" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="E3" s="10" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="F3" s="37" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G3" s="37" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="H3" s="37" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="I3" s="38" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="J3" s="11">
-        <x:v>45313</x:v>
-      </x:c>
-      <x:c r="K3" s="11">
-        <x:v>47505</x:v>
-      </x:c>
-      <x:c r="L3" s="12">
-        <x:v>10000</x:v>
-      </x:c>
-      <x:c r="M3" s="11" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="N3" s="10" t="s">
-        <x:v>40</x:v>
-      </x:c>
+      <x:c r="A3" s="32"/>
+      <x:c r="B3" s="7"/>
+      <x:c r="C3" s="8"/>
+      <x:c r="D3" s="9"/>
+      <x:c r="E3" s="10"/>
+      <x:c r="F3" s="37"/>
+      <x:c r="G3" s="37"/>
+      <x:c r="H3" s="37"/>
+      <x:c r="I3" s="38"/>
+      <x:c r="J3" s="11"/>
+      <x:c r="K3" s="11"/>
+      <x:c r="L3" s="12"/>
+      <x:c r="M3" s="11"/>
+      <x:c r="N3" s="10"/>
       <x:c r="O3" s="10"/>
       <x:c r="P3" s="10"/>
       <x:c r="Q3" s="10"/>
-      <x:c r="R3" s="37">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="S3" s="39" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="T3" s="10"/>
-      <x:c r="U3" s="10"/>
-      <x:c r="V3" s="29" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="W3" s="29" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="X3" s="31" t="s">
-        <x:v>56</x:v>
-      </x:c>
+      <x:c r="R3" s="37"/>
+      <x:c r="S3" s="39"/>
+      <x:c r="T3" s="39"/>
+      <x:c r="U3" s="11"/>
+      <x:c r="V3" s="29"/>
+      <x:c r="W3" s="29"/>
+      <x:c r="X3" s="31"/>
     </x:row>
     <x:row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <x:c r="A4" s="32" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="B4" s="7">
-        <x:v>45313</x:v>
-      </x:c>
-      <x:c r="C4" s="8" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D4" s="9" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="E4" s="10" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="F4" s="37" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G4" s="37" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="H4" s="37" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="I4" s="38" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="J4" s="11">
-        <x:v>45313</x:v>
-      </x:c>
-      <x:c r="K4" s="11">
-        <x:v>47505</x:v>
-      </x:c>
-      <x:c r="L4" s="12">
-        <x:v>10000</x:v>
-      </x:c>
-      <x:c r="M4" s="11" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="N4" s="10" t="s">
-        <x:v>40</x:v>
-      </x:c>
+      <x:c r="A4" s="32"/>
+      <x:c r="B4" s="7"/>
+      <x:c r="C4" s="8"/>
+      <x:c r="D4" s="9"/>
+      <x:c r="E4" s="10"/>
+      <x:c r="F4" s="37"/>
+      <x:c r="G4" s="37"/>
+      <x:c r="H4" s="37"/>
+      <x:c r="I4" s="38"/>
+      <x:c r="J4" s="11"/>
+      <x:c r="K4" s="11"/>
+      <x:c r="L4" s="12"/>
+      <x:c r="M4" s="11"/>
+      <x:c r="N4" s="10"/>
       <x:c r="O4" s="10"/>
       <x:c r="P4" s="10"/>
       <x:c r="Q4" s="10"/>
-      <x:c r="R4" s="37">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="S4" s="39" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="T4" s="10"/>
-      <x:c r="U4" s="10"/>
-      <x:c r="V4" s="29" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="W4" s="29" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="X4" s="31" t="s">
-        <x:v>57</x:v>
-      </x:c>
+      <x:c r="R4" s="37"/>
+      <x:c r="S4" s="39"/>
+      <x:c r="T4" s="39"/>
+      <x:c r="U4" s="11"/>
+      <x:c r="V4" s="29"/>
+      <x:c r="W4" s="29"/>
+      <x:c r="X4" s="31"/>
     </x:row>
     <x:row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <x:c r="A5" s="6"/>
